--- a/AVVERSARI/CORNER.xlsx
+++ b/AVVERSARI/CORNER.xlsx
@@ -1,16 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C21FDD5-DB70-49F6-87DB-04BF02EC2D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA23B258-277D-4DE9-B419-38AD9B40B79E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35640" yWindow="990" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$I$129</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="160">
   <si>
     <t>GIORNATA</t>
   </si>
@@ -179,6 +182,327 @@
   </si>
   <si>
     <t>GIOC SULLA PALLA</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=17CGwL2LEc4ZXwJJbrgK06WHS8FPCDtyc&amp;authuser=1&amp;usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1j4Oxy82ACBdRYUGKPDOXRVO9t6H_nKL0&amp;authuser=1&amp;usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1p55vRNC_zPhE9YNMBjb32jNik_MjXKyO&amp;authuser=1&amp;usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1XufV36N0CG0rpUt05_9Kf0blUlsqdRYP&amp;authuser=1&amp;usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Kf4qVe3EBFDeue0zlwOVpyvh6LL7yl5y&amp;authuser=1&amp;usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1e1aQfvYzXVDK1TzZ7l220c4E8QBIN4q5&amp;authuser=1&amp;usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1AWKZKBYMiW9W8azShWlwTCUnv8IJG2uT&amp;authuser=1&amp;usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1S8_wZq5DJhuPBYUoVxqhukc2U3aFav-e&amp;authuser=1&amp;usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1jx-3oerhsZzFNAd6U4LvYXYU3C9GdMuU&amp;authuser=1&amp;usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1USt4iL4PMoeLdxMV0brAOzJ2ym0g6inb&amp;authuser=1&amp;usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1XJX8qvCArI9l8_E4m8LzbwrHFypSD9Z7&amp;authuser=1&amp;usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1rFDg3zvCcmkmdEdAKvjcO2sqfiNPtX6A&amp;authuser=1&amp;usp=drive_link</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>Cittadella</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GQQYPcO0HUV-oVhhLpg9G1WOsdLJAZfH/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Et_1VKptGjs6UPqEHxOA4lUYKM6ETrO5/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1If6djBzOadbZGEIeKkAlVEewd56AJufK/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YwKN-XdI2Te74VW0zvFjH6yEQa8VSJe1/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kVEzuST6KbfClnq8i5xo-LIlTCDgg2Uz/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1G4LSE-cw6_pMAbdzEZCRJ_rYh9E6Fb6l/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PFBsFmcNGx3UxkZ5clYtS_KknTMut5Af/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1FpEL9oNfyQsjqrUpwiPkDg8nvDHvSdEl/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Nn0cbWJgq5Qca0fol_QQ2Yly-LcdINMP/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1IyWp9vlSIMHYE0KmhWj6VV8rR9HbLghI/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1q5u-_tx9PYS0EF-JUfPFIVpQ2r96RTWD/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1H7yGFasVJaemKnaLTzSO3aZ1gtr417zH/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gvdLK6iG6Wq4eYQdJP_k_CP_uPZfVdZD/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13zVBMldfKOPD6b1D_0MvLOOFrOHjiPnP/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1L90vUsypeJdoU1SYXZYp-5nfr143dCmT/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1BD0IiZaBC8osaos48vIM5q0kdebAQ-4w/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GRk2mAlT88P5dT3eM7xL2PTFDGtI-DT7/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VzrEytFCWbjOCCli5lkLRduKxMzRBRvz/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ww9eY8EzgozZn4ESouoL2tTAH1gYk09R/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Ce8bVXrtxzsrGWORkjsfIPfVQ1aqpUkv/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gMl5SlbINjxWKeyUrzBQUuttDR3RIMhp/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hPrLjwvlyiTe-YAV591sX8vsIdLrYgej/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qKIAHA_H4ASVEiLBvY1n5XkojD7ryz7S/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1el4DJ34qZXdo2MGgCiMKjxqCSJmxqls9/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-W-Re9K81WX_4qtMnghZNaT-7_uU9kR-/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RL_5C3jE8CSrseXqR68VmQqxUhgdwsQl/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qpWL3Vt0LCs9ZXyp3DF1IXS6qaF78RId/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1d-Lx-6zFmzMNNFFCG5PHlPMwpkWySIAD/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1z_dNwNtGZtjUOcisE-nHJtAE_83D5qCM/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10Q1yzZPpVM4PUU1BWCPBjXe4cWdI0QPZ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1q64Oot9ibLqFTQVElIErBfz820krvxXn/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1MbyB3nloswc0Y1u2F0Ai7Ib-GClEvsyb/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TI0TRzl9VYqoPWBDqhQX0LL18hpQ4JBj/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Ge9xgdbQPkp-Y-RCbVyXQEEaGJmVulcb/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/17opacgXLTH0erSdNr6HDL6LtBm7OgJwe/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Q5EMIQ6JT_nsG8GTCGr3EPQTOZPjG0D5/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1vd4vQ9kG9sgQEOd8JPBTe1ynu0U4DJWz/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Padova</t>
+  </si>
+  <si>
+    <t>Albinoleffe</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1alZmO7byrCDHTLo9OWglY4h7rijkpFv_/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1SaXMfM5eA-wqOtDy8icFojyEkzQop7Vu/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hEN08_kboiaMP5IUcuBR35DGsJgU9n0f/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GnsTBJyg7G810KfTtHB8RdnADfOiDXcI/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ubvZFFIYYtMkfPT9h7J1j9SDjzrchhcM/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1P7tVXUXCRHIlMz51BYrG-USVfEMn-Wya/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1LCbX0F0sOO1chEZdEv4letoda0w9qdW1/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19QARJIbNPD22Mp5WTV-YYAhQyAJ6ZDhr/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1X-B-bmA1T8RbeWeSc4I_BRuPpeg9HLTX/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Feralpisalò</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1meVmNCec90cYu5a-or9l9K9e3sy9vQTi/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1vvRsgsRnsq5smZDJqWK7_9Bcv7cQeQ7b/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WesKDV-Tk6Q35adJpbdTzIc0wNiN9lsg/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15eG4vjSaZQGhkihqQ_r73LTyPqovo4Rh/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1h6OFGOkFCo5tq0Z_XdMMlJCqpgvc1OiC/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1HOFiMV2YMRthJgWWMf2p31PQmuIpfFLl/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11lNBKEiFSerIZiFTqcnWUEPEKKtFZ1XZ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12-Kqce84QvieRz4FUuwKP0h4uKCDe2B9/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rgipHi8gpaZfellE9IPgc_J5k-4A3H4l/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Bal1Ljl-yHHILoyiXS5bINTKne38qBrg/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18IE-JY_06a7g5u-SagXx7qtn6JUjIkeX/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CktItBhmL3UvZtqlTSxW_4IPzyJhH_e9/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15fIqisrdCCCvp813de9pWMS5SG2QkGgC/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1e0O0aeoK8qIYIIfXaY-2JNRvWnAhCafn/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Etmrx4_k1nGu-wm23YnPagqF71XaI27A/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1SKi0IYX6BCjPZq8uGfp8FvBZCPas-8Yf/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1UufUX1tmhzvgzlO06iAAhauxYuhT-uT4/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bopMf5tCmGGLAM3fneSqYUi6y_VEBFPi/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iun_owidjwYlqQAc-PBNNbKr5WBuuPFZ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1NNAJDu5LadFyqf4ONAU-l48MOoTfCkO4/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GFXtIG320G_n7qj_eJ2GtKrzCuHGXu05/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1d859su1mAWes3WcbPZXS_Wvl2uCTvSYe/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1sFs1SG1UiES3tASzKEH2LhAl-YSCVmJe/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Brescia</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XXxPT0ZXiSf9GqIIWpJPQWPs2Ksgg1pZ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Winke1HBdz6PN_uLXrmZWcXjaPN6l-xK/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Z4qxq0x4QafpeOUG1ui4gstsdUXFVCNk/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Reggiana</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TJjh9FvEVl9-op2qUtZEZ2KT312zuyzm/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11BfQth7F0PIg66R8poMMjv8oySD3S161/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1T-ie-2K_rPfJxwNhk-Kmz6meYUhPy01j/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RoYEwt31Rhb4Og191DYsLKj4r6JVCa-W/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yNXiN_odqjax_1MzJUiE-yEXv3ue5K5p/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jFZ0_8fkGExtyJVdLWrcT2T6RFOMfS-u/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CTTR9_tNx9P_x-NNl36LOANXDdngUHvO/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1boLjeisJdBEucqQXKb5VWm0eYuJkQJ5C/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11e82JPW2zsYe-L9l4ADCzqqS3EBVIO2O/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kPBYGQY9h0iQp61EAOO7cs0JTf9BXiYV/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1vJ5yBhjBqhfHFZsf0BLbeuKoxSb0olOx/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1u3A1upltsZJcNN94NM7E2IWun7rRfnGL/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1aM3bDiddO-HJgjQnD2QX0o5rnSSZ0m-m/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1uVSZvGeqPbkvjAVnsmwrqPok5RB7PPn-/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -513,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="K125" sqref="K125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,10 +849,10 @@
     <col min="2" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="98.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="100.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -562,13 +886,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -577,30 +901,30 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
@@ -612,21 +936,21 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
@@ -635,27 +959,27 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>17</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>12</v>
@@ -664,27 +988,27 @@
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
@@ -693,30 +1017,30 @@
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -728,21 +1052,21 @@
         <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>25</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
@@ -751,27 +1075,27 @@
         <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>26</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>12</v>
@@ -780,27 +1104,27 @@
         <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -809,27 +1133,27 @@
         <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>28</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
@@ -838,27 +1162,27 @@
         <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
@@ -875,19 +1199,19 @@
       <c r="H12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>23</v>
+      <c r="I12" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
@@ -896,27 +1220,27 @@
         <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>24</v>
+      <c r="I13" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>8</v>
@@ -934,18 +1258,18 @@
         <v>11</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>8</v>
@@ -954,7 +1278,7 @@
         <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -963,56 +1287,56 @@
         <v>11</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G17" s="1">
         <v>2</v>
@@ -1021,85 +1345,85 @@
         <v>11</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -1108,134 +1432,134 @@
         <v>11</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>12</v>
@@ -1247,82 +1571,82 @@
         <v>13</v>
       </c>
       <c r="G25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>8</v>
@@ -1334,24 +1658,24 @@
         <v>13</v>
       </c>
       <c r="G28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>8</v>
@@ -1363,24 +1687,24 @@
         <v>13</v>
       </c>
       <c r="G29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>12</v>
@@ -1389,77 +1713,3019 @@
         <v>10</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>7</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>7</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>7</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>7</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>8</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>8</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>8</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>8</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>8</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>8</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="1">
+        <v>2</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>8</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="1">
+        <v>2</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>8</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>8</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>11</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>11</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>11</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>11</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>11</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>11</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>11</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>11</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>11</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>11</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>11</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>11</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>11</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I31" s="2" t="s">
+      <c r="D57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="1">
+        <v>2</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>11</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="1">
+        <v>2</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>11</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="1">
+        <v>2</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>11</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="1">
+        <v>2</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>11</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="1">
+        <v>2</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>11</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="1">
+        <v>2</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>11</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G63" s="1">
+        <v>2</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>11</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64" s="1">
+        <v>2</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>11</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>11</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>11</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67" s="1">
+        <v>2</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>11</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>11</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>11</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>11</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="1">
+        <v>2</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>11</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>11</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>11</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" s="1">
+        <v>2</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>11</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>11</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>12</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>12</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" s="1">
+        <v>1</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>12</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" s="1">
+        <v>1</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>12</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" s="1">
+        <v>1</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>12</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" s="1">
+        <v>1</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>12</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" s="1">
+        <v>1</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>12</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G83" s="1">
+        <v>2</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>13</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>13</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" s="1">
+        <v>1</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>13</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G86" s="1">
+        <v>1</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>13</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" s="1">
+        <v>1</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>13</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" s="1">
+        <v>1</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>13</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" s="1">
+        <v>1</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I89" s="2" t="s">
         <v>42</v>
       </c>
     </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>13</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" s="1">
+        <v>2</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>13</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" s="1">
+        <v>1</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>13</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" s="1">
+        <v>1</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>13</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93" s="1">
+        <v>1</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>13</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G94" s="1">
+        <v>2</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>13</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" s="1">
+        <v>2</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>13</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" s="1">
+        <v>1</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>13</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97" s="1">
+        <v>1</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>13</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G98" s="1">
+        <v>2</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>13</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" s="1">
+        <v>1</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>13</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G100" s="1">
+        <v>1</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>13</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" s="1">
+        <v>1</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>13</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G102" s="1">
+        <v>1</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>13</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" s="1">
+        <v>1</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>13</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G104" s="1">
+        <v>1</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>13</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" s="1">
+        <v>1</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>13</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" s="1">
+        <v>2</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>13</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" s="1">
+        <v>2</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>13</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G108" s="1">
+        <v>2</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>13</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" s="1">
+        <v>2</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>13</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110" s="1">
+        <v>1</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>14</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G111" s="1">
+        <v>1</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>14</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" s="1">
+        <v>1</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>14</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" s="1">
+        <v>1</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>14</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G114" s="1">
+        <v>1</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>14</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" s="1">
+        <v>1</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>14</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" s="1">
+        <v>1</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>14</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G117" s="1">
+        <v>2</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>14</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G118" s="1">
+        <v>1</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>14</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G119" s="1">
+        <v>1</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>14</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G120" s="1">
+        <v>2</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>14</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G121" s="1">
+        <v>1</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>14</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122" s="1">
+        <v>1</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>14</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G123" s="1">
+        <v>1</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>14</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G124" s="1">
+        <v>2</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>14</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125" s="1">
+        <v>1</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>14</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G126" s="1">
+        <v>1</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>14</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G127" s="1">
+        <v>1</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>14</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G128" s="1">
+        <v>1</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>14</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G129" s="1">
+        <v>2</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:I129" xr:uid="{9D4FB7D3-B266-4D16-9812-F24B08D50FFD}"/>
   <hyperlinks>
-    <hyperlink ref="I14" r:id="rId1" xr:uid="{E376F501-4AE9-4FE8-BBDE-E96214E0931C}"/>
-    <hyperlink ref="I15" r:id="rId2" xr:uid="{430E194E-C484-496F-BB46-B787CD2D8A4E}"/>
-    <hyperlink ref="I16" r:id="rId3" xr:uid="{62DE2C88-8293-4A05-A1A4-AD21D51EEACE}"/>
-    <hyperlink ref="I17" r:id="rId4" xr:uid="{FE267079-8993-45AE-A150-CFAE870DB0B4}"/>
-    <hyperlink ref="I3" r:id="rId5" xr:uid="{CD2F0715-5F50-4CD3-B638-C81D7BBBA3FF}"/>
-    <hyperlink ref="I4" r:id="rId6" xr:uid="{10E02658-DE0D-46AD-9EBF-FE9E22716FE4}"/>
-    <hyperlink ref="I5" r:id="rId7" xr:uid="{0C74C250-066C-4231-A134-D062E3F4D136}"/>
-    <hyperlink ref="I6" r:id="rId8" xr:uid="{E794C9D8-1A40-4443-8B81-FE6C3EA19BC5}"/>
-    <hyperlink ref="I7" r:id="rId9" xr:uid="{DFAD533F-371B-4B73-831F-0779A63F2A64}"/>
-    <hyperlink ref="I8" r:id="rId10" xr:uid="{69D47E3D-C1D7-4220-8E22-8E233420A363}"/>
-    <hyperlink ref="I9" r:id="rId11" xr:uid="{81B47829-2D18-4259-815A-A59DA8DFC49E}"/>
-    <hyperlink ref="I10" r:id="rId12" xr:uid="{CC373C5E-95BC-4AB5-9A6D-9983B8D2ABD6}"/>
-    <hyperlink ref="I11" r:id="rId13" xr:uid="{B3EBA5A3-3E10-4520-8E48-5E7604A58A7E}"/>
-    <hyperlink ref="I12" r:id="rId14" xr:uid="{1499AAB1-D58D-47E3-AD3D-4ECA5319C117}"/>
-    <hyperlink ref="I13" r:id="rId15" xr:uid="{F4CBE1EB-C461-4D5A-92A2-BF1F18FBCA0C}"/>
-    <hyperlink ref="I27" r:id="rId16" xr:uid="{3A6C3797-37B3-448D-9265-1434F33298EE}"/>
-    <hyperlink ref="I28" r:id="rId17" xr:uid="{3A2FFDFD-C42D-4A47-BBB8-05BC088C3031}"/>
-    <hyperlink ref="I29" r:id="rId18" xr:uid="{8C5F998F-9A4A-49C9-86EB-4DEC21B9F748}"/>
-    <hyperlink ref="I30" r:id="rId19" xr:uid="{B6AE2817-4151-4CC4-8000-C15353ABB588}"/>
-    <hyperlink ref="I31" r:id="rId20" xr:uid="{76B13A38-9864-458C-AC93-19490551F1F6}"/>
-    <hyperlink ref="I25" r:id="rId21" xr:uid="{77C23BFC-A695-4AC8-84EC-C37F6A41DF06}"/>
-    <hyperlink ref="I18" r:id="rId22" xr:uid="{0E3C202E-C8E0-473C-9C38-48F0D29434C3}"/>
-    <hyperlink ref="I19" r:id="rId23" xr:uid="{728A870C-3FC3-42F8-A1FE-27E47D4DA248}"/>
-    <hyperlink ref="I20" r:id="rId24" xr:uid="{07A22869-DD51-4989-B662-EBA373123B6A}"/>
-    <hyperlink ref="I21" r:id="rId25" xr:uid="{B6EFDEAD-9D9B-4BF6-B5C5-74A0DF966BE6}"/>
-    <hyperlink ref="I22" r:id="rId26" xr:uid="{615E1AE0-C8F9-4E8E-A775-2472A131B7FD}"/>
-    <hyperlink ref="I23" r:id="rId27" xr:uid="{965DE079-19F9-4D2B-BCC5-1787F40C821F}"/>
-    <hyperlink ref="I24" r:id="rId28" xr:uid="{98504711-2D55-4159-9026-D34B39072ADD}"/>
+    <hyperlink ref="I80" r:id="rId1" xr:uid="{E376F501-4AE9-4FE8-BBDE-E96214E0931C}"/>
+    <hyperlink ref="I81" r:id="rId2" xr:uid="{430E194E-C484-496F-BB46-B787CD2D8A4E}"/>
+    <hyperlink ref="I82" r:id="rId3" xr:uid="{62DE2C88-8293-4A05-A1A4-AD21D51EEACE}"/>
+    <hyperlink ref="I83" r:id="rId4" xr:uid="{FE267079-8993-45AE-A150-CFAE870DB0B4}"/>
+    <hyperlink ref="I37" r:id="rId5" xr:uid="{CD2F0715-5F50-4CD3-B638-C81D7BBBA3FF}"/>
+    <hyperlink ref="I38" r:id="rId6" xr:uid="{10E02658-DE0D-46AD-9EBF-FE9E22716FE4}"/>
+    <hyperlink ref="I39" r:id="rId7" xr:uid="{0C74C250-066C-4231-A134-D062E3F4D136}"/>
+    <hyperlink ref="I40" r:id="rId8" xr:uid="{E794C9D8-1A40-4443-8B81-FE6C3EA19BC5}"/>
+    <hyperlink ref="I41" r:id="rId9" xr:uid="{DFAD533F-371B-4B73-831F-0779A63F2A64}"/>
+    <hyperlink ref="I42" r:id="rId10" xr:uid="{69D47E3D-C1D7-4220-8E22-8E233420A363}"/>
+    <hyperlink ref="I43" r:id="rId11" xr:uid="{81B47829-2D18-4259-815A-A59DA8DFC49E}"/>
+    <hyperlink ref="I44" r:id="rId12" xr:uid="{CC373C5E-95BC-4AB5-9A6D-9983B8D2ABD6}"/>
+    <hyperlink ref="I77" r:id="rId13" xr:uid="{B3EBA5A3-3E10-4520-8E48-5E7604A58A7E}"/>
+    <hyperlink ref="I78" r:id="rId14" xr:uid="{1499AAB1-D58D-47E3-AD3D-4ECA5319C117}"/>
+    <hyperlink ref="I79" r:id="rId15" xr:uid="{F4CBE1EB-C461-4D5A-92A2-BF1F18FBCA0C}"/>
+    <hyperlink ref="I85" r:id="rId16" xr:uid="{3A6C3797-37B3-448D-9265-1434F33298EE}"/>
+    <hyperlink ref="I86" r:id="rId17" xr:uid="{3A2FFDFD-C42D-4A47-BBB8-05BC088C3031}"/>
+    <hyperlink ref="I87" r:id="rId18" xr:uid="{8C5F998F-9A4A-49C9-86EB-4DEC21B9F748}"/>
+    <hyperlink ref="I88" r:id="rId19" xr:uid="{B6AE2817-4151-4CC4-8000-C15353ABB588}"/>
+    <hyperlink ref="I89" r:id="rId20" xr:uid="{76B13A38-9864-458C-AC93-19490551F1F6}"/>
+    <hyperlink ref="I97" r:id="rId21" xr:uid="{77C23BFC-A695-4AC8-84EC-C37F6A41DF06}"/>
+    <hyperlink ref="I90" r:id="rId22" xr:uid="{0E3C202E-C8E0-473C-9C38-48F0D29434C3}"/>
+    <hyperlink ref="I91" r:id="rId23" xr:uid="{728A870C-3FC3-42F8-A1FE-27E47D4DA248}"/>
+    <hyperlink ref="I92" r:id="rId24" xr:uid="{07A22869-DD51-4989-B662-EBA373123B6A}"/>
+    <hyperlink ref="I93" r:id="rId25" xr:uid="{B6EFDEAD-9D9B-4BF6-B5C5-74A0DF966BE6}"/>
+    <hyperlink ref="I94" r:id="rId26" xr:uid="{615E1AE0-C8F9-4E8E-A775-2472A131B7FD}"/>
+    <hyperlink ref="I95" r:id="rId27" xr:uid="{965DE079-19F9-4D2B-BCC5-1787F40C821F}"/>
+    <hyperlink ref="I96" r:id="rId28" xr:uid="{98504711-2D55-4159-9026-D34B39072ADD}"/>
+    <hyperlink ref="I45" r:id="rId29" xr:uid="{D52778B8-73B1-413B-BC29-4386103FB00D}"/>
+    <hyperlink ref="I46" r:id="rId30" xr:uid="{BF72A578-70D8-4965-9DA4-1204AE9DE8A1}"/>
+    <hyperlink ref="I47" r:id="rId31" xr:uid="{7A09435F-24A2-41C1-9409-0A3DC9C21BBE}"/>
+    <hyperlink ref="I48" r:id="rId32" xr:uid="{5247AB69-C15F-4D3C-8E3E-B62977E1BFE6}"/>
+    <hyperlink ref="I49" r:id="rId33" xr:uid="{0035D733-501D-414A-BC2D-92E07ACE8BBD}"/>
+    <hyperlink ref="I50" r:id="rId34" xr:uid="{C25E94C2-5200-45A6-A916-F6B2F509F35A}"/>
+    <hyperlink ref="I51" r:id="rId35" xr:uid="{2F5698F9-8FBF-4A2C-A16E-F728692AFB24}"/>
+    <hyperlink ref="I52" r:id="rId36" xr:uid="{CE6CA63A-F68A-43E4-AB81-F3B8309908D6}"/>
+    <hyperlink ref="I53" r:id="rId37" xr:uid="{DEDA37AA-2AEC-4DCE-BFE7-C05A03CB5E4A}"/>
+    <hyperlink ref="I54" r:id="rId38" xr:uid="{65F7F02D-E540-42E8-9938-F5C06973C662}"/>
+    <hyperlink ref="I55" r:id="rId39" xr:uid="{9CEA3832-DA44-429A-8BCB-5157E6C8F274}"/>
+    <hyperlink ref="I56" r:id="rId40" xr:uid="{A34C58A7-39A6-4E88-8AD0-4018401F860C}"/>
+    <hyperlink ref="I84" r:id="rId41" xr:uid="{977FFB1D-911E-415D-AD81-4340AB312264}"/>
+    <hyperlink ref="I14" r:id="rId42" xr:uid="{0F7A3D91-B1AF-47B0-BA5D-22825A1C504D}"/>
+    <hyperlink ref="I15" r:id="rId43" xr:uid="{29AA39D1-2375-422F-8D81-DAD3162C4C87}"/>
+    <hyperlink ref="I16" r:id="rId44" xr:uid="{62E3B879-C6BB-4812-A0F9-961095610598}"/>
+    <hyperlink ref="I17" r:id="rId45" xr:uid="{4993FE36-8551-4A65-BE9F-0542050BCD80}"/>
+    <hyperlink ref="I18" r:id="rId46" xr:uid="{733B2EE7-63EE-498B-81AB-4D5D8AA0642E}"/>
+    <hyperlink ref="I19" r:id="rId47" xr:uid="{296404DD-2D5A-4426-8CFC-B74D6AD24E39}"/>
+    <hyperlink ref="I20" r:id="rId48" xr:uid="{075C990C-90B2-423F-83C0-40F55C1DCB15}"/>
+    <hyperlink ref="I21" r:id="rId49" xr:uid="{229F09B2-1EA9-4C6E-BE52-54EDA687BE1C}"/>
+    <hyperlink ref="I22" r:id="rId50" xr:uid="{6ACD524D-09FA-43F9-A3D9-716F66FE11DE}"/>
+    <hyperlink ref="I111" r:id="rId51" xr:uid="{F736105A-1694-4A6E-913F-E251FEFC610C}"/>
+    <hyperlink ref="I112" r:id="rId52" xr:uid="{DEDAAF51-05EC-4F90-B2D7-1FFC9919A376}"/>
+    <hyperlink ref="I113" r:id="rId53" xr:uid="{D04AB8CD-A242-485B-AAFD-E97D93833CBE}"/>
+    <hyperlink ref="I114" r:id="rId54" xr:uid="{CCE3880C-8DC7-4DB0-935B-DDB355040C73}"/>
+    <hyperlink ref="I115" r:id="rId55" xr:uid="{5DE51AC2-F35D-4EE0-BC72-1AA08DE57B98}"/>
+    <hyperlink ref="I116" r:id="rId56" xr:uid="{C606933F-3A52-4252-804A-2E3ED360275C}"/>
+    <hyperlink ref="I117" r:id="rId57" xr:uid="{3C4EF82C-1ACF-499C-B977-A9562A00D41A}"/>
+    <hyperlink ref="I118" r:id="rId58" xr:uid="{2EF12FF0-0108-4281-AD9E-C4054F65339A}"/>
+    <hyperlink ref="I119" r:id="rId59" xr:uid="{69D2D172-D14E-4350-B57E-D096E7BD8234}"/>
+    <hyperlink ref="I12" r:id="rId60" xr:uid="{88EFF130-B23E-442D-B702-83E5F69A369F}"/>
+    <hyperlink ref="I13" r:id="rId61" xr:uid="{81AD8BFB-76E8-4BBB-ADF0-9BFF949DBBB7}"/>
+    <hyperlink ref="I120" r:id="rId62" xr:uid="{BB203A29-1C7F-443D-BD4F-568E5983B6EC}"/>
+    <hyperlink ref="I57" r:id="rId63" xr:uid="{7547C56B-57D7-4F9D-BEC8-2E94883A822D}"/>
+    <hyperlink ref="I58" r:id="rId64" xr:uid="{E30C0F39-AB4C-4D26-AC48-E97A973532DF}"/>
+    <hyperlink ref="I59" r:id="rId65" xr:uid="{0D8C7632-9555-4F3A-835F-67E35CD6CFCE}"/>
+    <hyperlink ref="I60" r:id="rId66" xr:uid="{0FECEAAB-CBA0-453F-90EA-7B41527D8ACA}"/>
+    <hyperlink ref="I61" r:id="rId67" xr:uid="{8168F342-ADE0-41A7-95B6-8A9D660445EF}"/>
+    <hyperlink ref="I62" r:id="rId68" xr:uid="{FB97BF6D-4B50-4116-9A4A-83BF33AB7DC9}"/>
+    <hyperlink ref="I63" r:id="rId69" xr:uid="{F00F1A41-BE44-482F-AD57-FDFE499DD6A2}"/>
+    <hyperlink ref="I64" r:id="rId70" xr:uid="{8CBB3108-3784-44BB-8BCD-AE6581DDD5AE}"/>
+    <hyperlink ref="I65" r:id="rId71" xr:uid="{A4CB3A10-C28B-4B51-A7E6-0087AA0738F9}"/>
+    <hyperlink ref="I66" r:id="rId72" xr:uid="{83A4165E-03E9-48A1-87D4-609F9773ECDE}"/>
+    <hyperlink ref="I67" r:id="rId73" xr:uid="{CC31570E-D4C0-4B6A-80B5-BC725021373E}"/>
+    <hyperlink ref="I69" r:id="rId74" xr:uid="{8CFB4017-CC1E-48E5-8D22-CBA9A6DB0BB6}"/>
+    <hyperlink ref="I68" r:id="rId75" xr:uid="{5E2C89C4-0F52-4DB3-A498-3B98B1E0EF2E}"/>
+    <hyperlink ref="I70" r:id="rId76" xr:uid="{2B22BC48-20AB-4D9E-B734-1C327DE77968}"/>
+    <hyperlink ref="I71" r:id="rId77" xr:uid="{7F5AA02D-7400-4865-92BB-884541EB07C2}"/>
+    <hyperlink ref="I72" r:id="rId78" xr:uid="{39240FBC-E567-4B91-922B-646DA6B3E27B}"/>
+    <hyperlink ref="I121" r:id="rId79" xr:uid="{C66ADC44-DED1-4232-8334-AC8F142AC475}"/>
+    <hyperlink ref="I122" r:id="rId80" xr:uid="{49B0B0A8-340C-4312-A65E-0D69E085F31C}"/>
+    <hyperlink ref="I123" r:id="rId81" xr:uid="{A02559AA-5250-4724-BBDF-0BD2BB7D41BA}"/>
+    <hyperlink ref="I124" r:id="rId82" xr:uid="{80A68CAA-A8EC-43C8-8FFD-270E4EEDBAA0}"/>
+    <hyperlink ref="I125" r:id="rId83" xr:uid="{DCCFCA49-64FF-42DE-9E97-6C1FDA5BF46F}"/>
+    <hyperlink ref="I126" r:id="rId84" xr:uid="{2FEDBE70-CD25-4069-BE97-5396C3520566}"/>
+    <hyperlink ref="I127" r:id="rId85" xr:uid="{249579F8-4997-4453-BC27-B0184EC31B0E}"/>
+    <hyperlink ref="I128" r:id="rId86" xr:uid="{B262685C-E011-49E5-AB49-245B78DC56A7}"/>
+    <hyperlink ref="I129" r:id="rId87" xr:uid="{1AA7DA61-6F0B-4354-9642-2975B45D988E}"/>
+    <hyperlink ref="I98" r:id="rId88" xr:uid="{DE526DDA-9D97-43D8-B3A3-C05F4D8961D5}"/>
+    <hyperlink ref="I99" r:id="rId89" xr:uid="{14237999-47F2-4EF6-A093-78D0CD6C1C5D}"/>
+    <hyperlink ref="I100" r:id="rId90" xr:uid="{22C07224-4BFF-4BD6-8739-F0F513D5CC5C}"/>
+    <hyperlink ref="I101" r:id="rId91" xr:uid="{BA12C6AF-D6B3-408B-94BC-80A486C4E1C8}"/>
+    <hyperlink ref="I102" r:id="rId92" xr:uid="{449244EB-A9CE-461B-B29D-02BAEF0F4BF8}"/>
+    <hyperlink ref="I103" r:id="rId93" xr:uid="{22BCBDE4-1D43-4BA3-89C3-D9856C73B98A}"/>
+    <hyperlink ref="I104" r:id="rId94" xr:uid="{CBC328B9-38DE-4F00-8B72-9123A9FBB3BC}"/>
+    <hyperlink ref="I105" r:id="rId95" xr:uid="{019A6F38-7375-401D-8C36-2FC6C3F65685}"/>
+    <hyperlink ref="I106" r:id="rId96" xr:uid="{C415D408-D5BC-4330-8BF3-78CEB2C1D60A}"/>
+    <hyperlink ref="I107" r:id="rId97" xr:uid="{08D0634F-8CF0-48B3-A147-BE2F67551E09}"/>
+    <hyperlink ref="I108" r:id="rId98" xr:uid="{39A0484E-A7F5-414F-82C9-39B41D087F1F}"/>
+    <hyperlink ref="I109" r:id="rId99" xr:uid="{D606C9ED-AD19-455D-8983-E2CC50F5EC41}"/>
+    <hyperlink ref="I110" r:id="rId100" xr:uid="{77732B4F-DBB7-4260-8EA4-38389208421C}"/>
+    <hyperlink ref="I26" r:id="rId101" xr:uid="{36FDDF05-DA39-4C5D-A090-24BB919B7D78}"/>
+    <hyperlink ref="I27" r:id="rId102" xr:uid="{9E5ADA46-26D6-43B7-909F-06292635A70B}"/>
+    <hyperlink ref="I28" r:id="rId103" xr:uid="{FA916E19-4D0E-4DDB-AF40-94F870521300}"/>
+    <hyperlink ref="I29" r:id="rId104" xr:uid="{93365451-7E3B-4272-BC13-CCB208827F3A}"/>
+    <hyperlink ref="I30" r:id="rId105" xr:uid="{208577D6-F46A-4567-8DCC-ACDEF12EAFF1}"/>
+    <hyperlink ref="I31" r:id="rId106" xr:uid="{A0B15A17-D016-44BD-A903-80D96EF44065}"/>
+    <hyperlink ref="I32" r:id="rId107" xr:uid="{EF231A55-0832-45F5-A91D-67BAE3906B6C}"/>
+    <hyperlink ref="I33" r:id="rId108" xr:uid="{2237CC93-F614-4E88-A05C-51AD3B5B66F7}"/>
+    <hyperlink ref="I34" r:id="rId109" xr:uid="{493F0892-9F10-4E25-A1CC-6DFB8918BC99}"/>
+    <hyperlink ref="I35" r:id="rId110" xr:uid="{40F3542E-752B-48F5-8817-BBA63069E1D0}"/>
+    <hyperlink ref="I23" r:id="rId111" xr:uid="{D5AD70B8-70E9-447B-AED1-EF31BE16DF23}"/>
+    <hyperlink ref="I24" r:id="rId112" xr:uid="{86FE405F-16AD-4EDA-A94E-A26A1E568791}"/>
+    <hyperlink ref="I25" r:id="rId113" xr:uid="{FAEE9D4B-EBA5-4152-A532-670E42FC69E9}"/>
+    <hyperlink ref="I73" r:id="rId114" xr:uid="{5D141E86-A828-4817-B30B-0662AABA62F6}"/>
+    <hyperlink ref="I74" r:id="rId115" xr:uid="{B1D6BD32-E980-440F-9CEE-7793BDD2B99E}"/>
+    <hyperlink ref="I75" r:id="rId116" xr:uid="{477913FE-0B97-4720-87C6-CF975F106586}"/>
+    <hyperlink ref="I76" r:id="rId117" xr:uid="{B06A9C7F-D864-4E3F-A331-E0D3B83B8D68}"/>
+    <hyperlink ref="I2" r:id="rId118" xr:uid="{A191D0FA-2CD8-49F3-9CAD-5B719E77A1D5}"/>
+    <hyperlink ref="I3" r:id="rId119" xr:uid="{25271661-3724-49FA-ADB1-3D8F2582ADC0}"/>
+    <hyperlink ref="I4" r:id="rId120" xr:uid="{C5EBFB76-06CA-46EF-8790-943F832ED48F}"/>
+    <hyperlink ref="I5" r:id="rId121" xr:uid="{DCDD06FD-2A0C-443B-801E-20AB885BE8C0}"/>
+    <hyperlink ref="I6" r:id="rId122" xr:uid="{6DFD9B9D-0DB3-4BFE-9913-05999AC005F6}"/>
+    <hyperlink ref="I7" r:id="rId123" xr:uid="{72457D7A-24C6-4A41-A28D-4CB6153CAC0F}"/>
+    <hyperlink ref="I8" r:id="rId124" xr:uid="{89F63175-D223-4E22-A57E-1DC2397CE852}"/>
+    <hyperlink ref="I9" r:id="rId125" xr:uid="{00A215A5-C6A9-4D3E-84FA-66D710F3AD28}"/>
+    <hyperlink ref="I10" r:id="rId126" xr:uid="{CE35DC9D-3AF6-492F-A9E9-C43C995E5104}"/>
+    <hyperlink ref="I11" r:id="rId127" xr:uid="{63168EB1-0054-48A0-90D0-E167CC4AD9C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
